--- a/Outputs/PtX_demand_PT.xlsx
+++ b/Outputs/PtX_demand_PT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,51 +502,51 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0006048130745747752</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4.633996662316279e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002300625028332096</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>7.4739721563973e-05</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0006048130745747752</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4.633996662316279e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002300625028332096</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>7.4739721563973e-05</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -585,18 +585,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0003621210925501598</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001346379081153953</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3.700243579827917e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -604,24 +610,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0003621210925501598</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001346379081153953</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>3.700243579827917e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,17 +630,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0104205708008055</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.059328194027003e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0006523233041115</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.007806621961733901</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.735454024036412e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.005130419007949293</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -649,29 +661,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0104205708008055</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.059328194027003e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0006523233041115</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.007806621961733901</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.735454024036412e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.005130419007949293</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -690,26 +690,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>7.4739721563973e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0003621210925501598</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01116002178349567</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.059328194027003e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0006523279381081623</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00807368690036539</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.735454024036412e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.005130419007949293</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -718,51 +734,51 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.002937579253255237</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.879167034891512e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0003272092465510165</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>6.72894938918624e-05</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.002937579253255237</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>3.879167034891512e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0003272092465510165</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>6.72894938918624e-05</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -774,7 +790,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -783,17 +799,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.022983814688694e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>9.85606236653328e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -801,14 +821,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.001482638685480181</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.022983814688694e-09</v>
+        <v>0.0001789569760776939</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>9.85606236653328e-11</v>
+        <v>6.776706688190254e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -816,7 +838,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -824,24 +846,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.001482638685480181</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0001789569760776939</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>6.776706688190254e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -850,17 +866,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0042125048287027</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.877704592898886e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0010128179020752</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0051060944550518</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.752808082768649e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.005809731408513409</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -869,29 +897,17 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0042125048287027</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.877704592898886e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0010128179020752</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0051060944550518</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.752808082768649e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.005809731408513409</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -910,26 +926,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>6.72894938918624e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001482638685480181</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.007329042081019446</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.877704592898886e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.001013205818778689</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.005501070867045343</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.752808082768649e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.005809731408513409</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -938,51 +970,51 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0040596457540099</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>6.574875663464897e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0005199128098262</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>5.885281635630735e-05</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0040596457540099</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>6.574875663464897e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0005199128098262</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>5.885281635630735e-05</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -994,7 +1026,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1003,17 +1035,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>5.047263276392111e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.230309643506691e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1021,14 +1057,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.003799263951621619</v>
+      </c>
       <c r="F26" t="n">
-        <v>5.047263276392111e-09</v>
+        <v>2.458547981493456e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.230309643506691e-09</v>
+        <v>1.976394254763757e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1036,7 +1074,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1044,24 +1082,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.003799263951621619</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2.458547981493456e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>3.635139314769846e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.637424715607438e-12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.113188857305024e-11</v>
+      </c>
       <c r="I27" t="n">
-        <v>1.976394254763757e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>8.676915898679511e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.93999798732349e-13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.011756553728407e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1071,28 +1115,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.635139314769846e-11</v>
+        <v>0.0004114165352042191</v>
       </c>
       <c r="G28" t="n">
-        <v>3.637424715607438e-12</v>
+        <v>0.0001764972386482</v>
       </c>
       <c r="H28" t="n">
-        <v>2.113188857305024e-11</v>
+        <v>0.0016002090108054</v>
       </c>
       <c r="I28" t="n">
-        <v>8.676915898679511e-11</v>
+        <v>0.0013122610033398</v>
       </c>
       <c r="J28" t="n">
-        <v>3.93999798732349e-13</v>
+        <v>7.399022180948297e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>4.011756553728407e-10</v>
+        <v>0.008274360287381074</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1101,29 +1145,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0004114165352042191</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0001764972386482</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0016002090108054</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0013122610033398</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.399022180948297e-05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.008274360287381074</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1142,21 +1174,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>5.885281635630735e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.003799263951621619</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.004495652852643724</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0001764972422856247</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001600866519503635</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.00185194007279244</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.399022220348277e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.008274360688556729</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_PT.xlsx
+++ b/Outputs/PtX_demand_PT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -611,17 +611,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.002327188381595282</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0001638215923338511</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,29 +634,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0104205708008055</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.059328194027003e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0006523233041115</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.007806621961733901</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.735454024036412e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.005130419007949293</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -661,17 +653,29 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0104205708008055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.059328194027003e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0089490738962905</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.007806621961733901</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.735454024036412e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.005130419007949293</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -680,98 +684,102 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1088088360683084</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0004267407160212</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0811276643944179</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0488992894614437</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002866371317003</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0501792817045569</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>7.4739721563973e-05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0003621210925501598</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01116002178349567</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.059328194027003e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0006523279381081623</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.00807368690036539</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.735454024036412e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.005130419007949293</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.002937579253255237</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>3.879167034891512e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0003272092465510165</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>6.72894938918624e-05</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>7.4739721563973e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0003621210925501598</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1222960462333993</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00048733399796147</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.09007674292470506</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05713679795414294</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003339916719406641</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05530970071250619</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -780,40 +788,44 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.002937579253255237</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3.879167034891512e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0003272092465510165</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>6.72894938918624e-05</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.022983814688694e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>9.85606236653328e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -821,24 +833,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.001482638685480181</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0001789569760776939</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>6.776706688190254e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -847,17 +853,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.022983814688694e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>9.85606236653328e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -865,30 +875,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.001482638685480181</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0042125048287027</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.877704592898886e-05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0010128179020752</v>
-      </c>
+        <v>0.0001789569760776939</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0051060944550518</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.752808082768649e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.005809731408513409</v>
-      </c>
+        <v>6.776706688190254e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -897,17 +901,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.001218321656675916</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0001727691517342355</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -926,30 +934,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>6.72894938918624e-05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.001482638685480181</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.007329042081019446</v>
+        <v>0.0042125048287027</v>
       </c>
       <c r="G21" t="n">
         <v>9.877704592898886e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001013205818778689</v>
+        <v>0.0111129260681684</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005501070867045343</v>
+        <v>0.0051060944550518</v>
       </c>
       <c r="J21" t="n">
         <v>5.752808082768649e-05</v>
@@ -961,41 +965,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0040596457540099</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0287835849327677</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0004587699952913</v>
+      </c>
       <c r="H22" t="n">
-        <v>6.574875663464897e-07</v>
+        <v>0.07658536659775869</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005199128098262</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.021623831135409</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0002543648103777</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.048663694730089</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>5.885281635630735e-05</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1007,11 +1015,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1026,30 +1034,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6.72894938918624e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001482638685480181</v>
+      </c>
       <c r="F25" t="n">
-        <v>5.047263276392111e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.03733094867046306</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0005575470412202888</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08769868058263058</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.230309643506691e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.02729767115418858</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0003118928912053865</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.05447342613860241</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1057,16 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.003799263951621619</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>2.458547981493456e-05</v>
+        <v>0.0040596457540099</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>6.574875663464897e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>1.976394254763757e-05</v>
+        <v>0.0005199128098262</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1074,38 +1094,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>5.885281635630735e-05</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>3.635139314769846e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.637424715607438e-12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.113188857305024e-11</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.676915898679511e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.93999798732349e-13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.011756553728407e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1114,29 +1124,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0004114165352042191</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0001764972386482</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0016002090108054</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0013122610033398</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.399022180948297e-05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.008274360287381074</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1145,17 +1143,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>5.047263276392111e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.230309643506691e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1163,47 +1165,207 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.003799263951621619</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.458547981493456e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.976394254763757e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>5.170136468685901e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.60249994654634e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3.635139314769846e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.637424715607438e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.102616117173518e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.676915898679511e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.93999798732349e-13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.011756553728407e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0004114165352042191</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0001764972386482</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0148291746122799</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0013122610033398</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.399022180948297e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.008274360287381074</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.002196610500836</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0004137911066812</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0684978654615489</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0038819883370274</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0002189447388395</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0453483827234034</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>5.885281635630735e-05</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.003799263951621619</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.004495652852643724</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0001764972422856247</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.001600866519503635</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.00185194007279244</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.399022220348277e-05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.008274360688556729</v>
+      <c r="F37" t="n">
+        <v>0.006743964718166583</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0005902883489668247</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.08332769797165675</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.005799953409285303</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0002929349610429827</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.05362274341196013</v>
       </c>
     </row>
   </sheetData>
